--- a/xl/invisible.xlsx
+++ b/xl/invisible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddeolarte\python-for-excel\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17A9538-54E2-4615-B825-A37FFB3ADCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90CD78A-C484-400F-B8F3-1CFEF6D80C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="9960" xr2:uid="{9A02F371-E9E0-44E6-9F27-56F24E41D60E}"/>
+    <workbookView xWindow="5760" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{380709F2-3032-4704-BB2F-DCC4678476E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C975823D-D373-4EC8-8568-4C89B8A57F80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89E8C01-57E1-49A1-B51A-CA1E24FD1AA4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
